--- a/resources/20210321/import_templates/f43_preguntas.xlsx
+++ b/resources/20210321/import_templates/f43_preguntas.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,5 +671,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>